--- a/Relational Databases/Week 3/Week03 - Data Dictionary MKTIME - START.xlsx
+++ b/Relational Databases/Week 3/Week03 - Data Dictionary MKTIME - START.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\EC-Codespace\Codespace\Relational Databases\Week 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4472737-5DE1-44B7-8855-5DF995F3C544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80E5EDA-8467-4042-81F7-E724D82D31E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{F186737C-EDA2-46CA-9043-4A9927A471E4}"/>
+    <workbookView xWindow="3612" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{F186737C-EDA2-46CA-9043-4A9927A471E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="63">
   <si>
     <t>attributes</t>
   </si>
@@ -138,9 +138,6 @@
     <t>TABLE: order-products</t>
   </si>
   <si>
-    <t>order-productsID (pk)</t>
-  </si>
-  <si>
     <t>productID</t>
   </si>
   <si>
@@ -196,6 +193,27 @@
   </si>
   <si>
     <t>user email</t>
+  </si>
+  <si>
+    <t>shipmentsID (pk)</t>
+  </si>
+  <si>
+    <t>shipment_date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>total_cost</t>
+  </si>
+  <si>
+    <t>decimal(7,2)</t>
+  </si>
+  <si>
+    <t>some sql sums and joins required</t>
+  </si>
+  <si>
+    <t>based on total_cost in orders</t>
   </si>
 </sst>
 </file>
@@ -318,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -339,23 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -368,10 +370,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -689,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A324CAB2-490B-426D-AB2D-B48BBA878142}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="93" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,7 +890,7 @@
         <v>50</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="3" t="s">
@@ -902,7 +908,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="3" t="s">
@@ -911,7 +917,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
@@ -920,83 +926,78 @@
         <v>100</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2">
+        <v>12</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="14">
-        <v>12</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="14">
-        <v>20</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="C19" s="2">
+        <v>50</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="14">
-        <v>50</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="3">
         <v>3</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="11"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -1020,7 +1021,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>6</v>
@@ -1034,7 +1035,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>6</v>
@@ -1046,407 +1047,427 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="3">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3">
+        <v>20</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3">
+        <v>50</v>
+      </c>
+      <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3">
+        <v>50</v>
+      </c>
+      <c r="D35" s="3">
+        <v>20</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="9">
+        <v>12</v>
+      </c>
+      <c r="D36" s="9">
+        <v>20</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="3">
+      <c r="B46" s="3">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="13" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13">
-        <v>20</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="13">
-        <v>50</v>
-      </c>
-      <c r="D32" s="13">
-        <v>100</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="13">
-        <v>50</v>
-      </c>
-      <c r="D34" s="13">
-        <v>20</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="17">
-        <v>12</v>
-      </c>
-      <c r="D35" s="17">
-        <v>20</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="13">
-        <v>5</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="13" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="13" t="s">
+      <c r="C49" s="3"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="13">
-        <v>6</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="11"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="E50"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="E51"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C50" s="3"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B52"/>
       <c r="C52"/>
       <c r="E52"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B53"/>
       <c r="C53"/>
       <c r="E53"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54"/>
       <c r="C54"/>
       <c r="E54"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B55"/>
       <c r="C55"/>
       <c r="E55"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B56"/>
       <c r="C56"/>
       <c r="E56"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B57"/>
       <c r="C57"/>
       <c r="E57"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B58"/>
       <c r="C58"/>
       <c r="E58"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59"/>
       <c r="C59"/>
       <c r="E59"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60"/>
       <c r="C60"/>
       <c r="E60"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61"/>
       <c r="C61"/>
       <c r="E61"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B62"/>
       <c r="C62"/>
       <c r="E62"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63"/>
       <c r="E63"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B64"/>
       <c r="C64"/>
       <c r="E64"/>
@@ -1455,6 +1476,16 @@
       <c r="B65"/>
       <c r="C65"/>
       <c r="E65"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="E67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1463,17 +1494,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="686b0f6e-6d48-43de-ad91-66e3b1902bae">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9fd4c30f-5ab4-4746-a3a4-79b93f2803b7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1A36C221400BA48A64F7836A8CDACFE" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3471362ec8caebe4b8bca09a68b414ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="686b0f6e-6d48-43de-ad91-66e3b1902bae" xmlns:ns3="9fd4c30f-5ab4-4746-a3a4-79b93f2803b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9794a080f4a3828665e0aef47738a002" ns2:_="" ns3:_="">
     <xsd:import namespace="686b0f6e-6d48-43de-ad91-66e3b1902bae"/>
@@ -1696,6 +1716,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="686b0f6e-6d48-43de-ad91-66e3b1902bae">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9fd4c30f-5ab4-4746-a3a4-79b93f2803b7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1706,17 +1737,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93BE2BD2-087C-48AE-82C2-DDD7C2B20B1D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="686b0f6e-6d48-43de-ad91-66e3b1902bae"/>
-    <ds:schemaRef ds:uri="9fd4c30f-5ab4-4746-a3a4-79b93f2803b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE9BA83D-37D5-42C1-8A49-92DD8D419B26}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1735,6 +1755,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93BE2BD2-087C-48AE-82C2-DDD7C2B20B1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="686b0f6e-6d48-43de-ad91-66e3b1902bae"/>
+    <ds:schemaRef ds:uri="9fd4c30f-5ab4-4746-a3a4-79b93f2803b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9EE98E3-241C-41F7-8AE8-CF0567841C4E}">
   <ds:schemaRefs>
